--- a/SOLID_Project_1/GeneratedFiles/Flights.xlsx
+++ b/SOLID_Project_1/GeneratedFiles/Flights.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+  <si>
+    <t>Airport weather status: overcast clouds temperature: 20.1 C�� and 271.0�� wind</t>
+  </si>
   <si>
     <t>Flight Number</t>
   </si>
@@ -77,19 +80,76 @@
     <t>LA PAZ</t>
   </si>
   <si>
-    <t>10/02/2021</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>03/05/2018</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>NO CHICKENS IN PLANE</t>
+    <t>10/02/2022</t>
+  </si>
+  <si>
+    <t>09:00:01</t>
+  </si>
+  <si>
+    <t>03/05/2019</t>
+  </si>
+  <si>
+    <t>10:02:01</t>
+  </si>
+  <si>
+    <t>SEVERE STORM</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
+  </si>
+  <si>
+    <t>09:00:02</t>
+  </si>
+  <si>
+    <t>03/05/2020</t>
+  </si>
+  <si>
+    <t>10:02:02</t>
+  </si>
+  <si>
+    <t>10/02/2024</t>
+  </si>
+  <si>
+    <t>09:00:03</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>10:02:03</t>
+  </si>
+  <si>
+    <t>HB1</t>
+  </si>
+  <si>
+    <t>IBERIA</t>
+  </si>
+  <si>
+    <t>NNN333</t>
+  </si>
+  <si>
+    <t>ON TIME</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MEXICO CITY</t>
+  </si>
+  <si>
+    <t>ESA</t>
+  </si>
+  <si>
+    <t>03/10/2021</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -134,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,82 +204,210 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L3" t="s">
         <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/SOLID_Project_1/GeneratedFiles/Flights.xlsx
+++ b/SOLID_Project_1/GeneratedFiles/Flights.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Airport weather status: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+  <si>
+    <t>Airport weather status: overcast clouds temperature: 20.1 C�� and 271.0�� wind</t>
   </si>
   <si>
     <t>Flight Number</t>
@@ -56,40 +56,100 @@
     <t>Incidents</t>
   </si>
   <si>
-    <t>ejkd</t>
-  </si>
-  <si>
-    <t>ede</t>
-  </si>
-  <si>
-    <t>edef</t>
-  </si>
-  <si>
-    <t>efe</t>
-  </si>
-  <si>
-    <t>feve</t>
-  </si>
-  <si>
-    <t>dfefesa</t>
-  </si>
-  <si>
-    <t>fefa</t>
-  </si>
-  <si>
-    <t>adea</t>
-  </si>
-  <si>
-    <t>ead</t>
-  </si>
-  <si>
-    <t>deafd</t>
-  </si>
-  <si>
-    <t>deaf</t>
-  </si>
-  <si>
-    <t>fea</t>
+    <t>AB0023</t>
+  </si>
+  <si>
+    <t>AVIANCA</t>
+  </si>
+  <si>
+    <t>300F</t>
+  </si>
+  <si>
+    <t>CANCELED</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>MIAMI</t>
+  </si>
+  <si>
+    <t>EL SALVADOR</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>10/02/2022</t>
+  </si>
+  <si>
+    <t>09:00:01</t>
+  </si>
+  <si>
+    <t>03/05/2019</t>
+  </si>
+  <si>
+    <t>10:02:01</t>
+  </si>
+  <si>
+    <t>SEVERE STORM</t>
+  </si>
+  <si>
+    <t>10/02/2023</t>
+  </si>
+  <si>
+    <t>09:00:02</t>
+  </si>
+  <si>
+    <t>03/05/2020</t>
+  </si>
+  <si>
+    <t>10:02:02</t>
+  </si>
+  <si>
+    <t>10/02/2024</t>
+  </si>
+  <si>
+    <t>09:00:03</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>10:02:03</t>
+  </si>
+  <si>
+    <t>HB1</t>
+  </si>
+  <si>
+    <t>IBERIA</t>
+  </si>
+  <si>
+    <t>NNN333</t>
+  </si>
+  <si>
+    <t>ON TIME</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MEXICO CITY</t>
+  </si>
+  <si>
+    <t>ESA</t>
+  </si>
+  <si>
+    <t>03/10/2021</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -134,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -218,13 +278,136 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
